--- a/data/balance_sheet/3digits/total/323_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/323_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>323-Manufacture of sports goods</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>323-Manufacture of sports goods</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>63323.29691</v>
@@ -1484,7 +934,7 @@
         <v>71860.41654999999</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>89407.44712</v>
+        <v>89407.44712000001</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>100944.22037</v>
@@ -1505,20 +955,25 @@
         <v>232605.41012</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>311974.34002</v>
+        <v>312007.08296</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>319087.3974600001</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>328057.75206</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>351316.18</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>6780.80841</v>
+        <v>6780.808410000001</v>
       </c>
       <c r="D6" s="23" t="n">
         <v>10930.80802</v>
@@ -1545,23 +1000,28 @@
         <v>19311.14211</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>21998.04134</v>
+        <v>22014.58939</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>23824.72926</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>25052.14799</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>32263.585</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>2541.51599</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>6414.08703</v>
+        <v>6414.087030000001</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>3277.30099</v>
@@ -1573,7 +1033,7 @@
         <v>4865.34724</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>4435.113230000001</v>
+        <v>4435.11323</v>
       </c>
       <c r="I7" s="22" t="n">
         <v>2315.65109</v>
@@ -1585,17 +1045,22 @@
         <v>3509.18801</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>3895.33942</v>
+        <v>3911.71297</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>3733.597499999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>4123.69161</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>7321.189</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1450.97378</v>
@@ -1628,14 +1093,19 @@
         <v>5628.0715</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>4750.15087</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>5482.14334</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>7424.981</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>3348.93108</v>
@@ -1665,20 +1135,25 @@
         <v>10683.70241</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>15186.14049</v>
+        <v>15186.31499</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>18087.91124</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>18192.53413</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>19409.523</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>739.53233</v>
+        <v>739.5323300000001</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>1029.80161</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>2905.77396</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>2401.396</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>178.91989</v>
@@ -1724,7 +1204,7 @@
         <v>78.69207</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>59.1682</v>
+        <v>59.16820000000001</v>
       </c>
       <c r="F11" s="21" t="n">
         <v>44.08432</v>
@@ -1736,7 +1216,7 @@
         <v>93.11586</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>76.37231000000001</v>
+        <v>76.37231</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>195.94267</v>
@@ -1748,14 +1228,19 @@
         <v>494.3550300000001</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>158.84361</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>159.55287</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>509.288</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>83.57947</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2.60121</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>2023.666</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>39.86938</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>1.50254</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>212</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>43.71008999999999</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1.09867</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>1811.666</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,24 +1500,29 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>28670.56279</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>33031.89955</v>
+        <v>33031.89954999999</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>41351.27915</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>40967.23732</v>
+        <v>40967.23731999999</v>
       </c>
       <c r="G18" s="23" t="n">
         <v>59153.25754999999</v>
@@ -2028,14 +1543,19 @@
         <v>138506.24884</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>124091.66124</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>129004.19538</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>125764.405</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>24208.20732</v>
@@ -2047,7 +1567,7 @@
         <v>33773.14579</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>36043.02076</v>
+        <v>36043.02076000001</v>
       </c>
       <c r="G19" s="22" t="n">
         <v>50576.05278</v>
@@ -2056,7 +1576,7 @@
         <v>56563.71711</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>76153.80347999999</v>
+        <v>76153.80348</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>82321.18446999999</v>
@@ -2068,14 +1588,19 @@
         <v>121052.63558</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>109441.40466</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>114353.9388</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>109965.578</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>3430.55183</v>
@@ -2093,7 +1618,7 @@
         <v>7410.91996</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>6261.747380000001</v>
+        <v>6261.74738</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>6302.214379999999</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>11264.03382</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>11995.224</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>228.37807</v>
@@ -2210,7 +1750,7 @@
         <v>184.912</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>401.75837</v>
+        <v>401.7583700000001</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>1173.85995</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>513.85544</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>699.336</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>281.8243</v>
@@ -2247,7 +1792,7 @@
         <v>329.96034</v>
       </c>
       <c r="F24" s="21" t="n">
-        <v>53.19484000000001</v>
+        <v>53.19484</v>
       </c>
       <c r="G24" s="22" t="n">
         <v>128.36561</v>
@@ -2270,15 +1815,20 @@
       <c r="M24" s="22" t="n">
         <v>141.33416</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>37.234</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
-        <v>661.90958</v>
+        <v>661.9095800000001</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>802.83477</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>4715.2943</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>4767.576</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>140.30831</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>1984.26114</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>1700.543</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>1298.84988</v>
@@ -2370,32 +1930,37 @@
         <v>3743.63205</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>6943.698069999999</v>
+        <v>6943.69807</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>7570.96552</v>
+        <v>7570.965520000001</v>
       </c>
       <c r="I27" s="23" t="n">
         <v>13803.30216</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>6390.08265</v>
+        <v>6390.082649999999</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>9118.04003</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>23938.21399</v>
+        <v>23938.36062</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>39968.02601</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>40162.03576</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>29198.125</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>362.04737</v>
@@ -2422,20 +1987,25 @@
         <v>3397.53825</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>5580.722690000001</v>
+        <v>5580.72269</v>
       </c>
       <c r="L28" s="22" t="n">
         <v>15269.38751</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>26537.30502</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>26538.73614</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>9660.029</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>29</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>26.83725</v>
@@ -2550,15 +2130,20 @@
       <c r="M31" s="22" t="n">
         <v>140.32331</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>164.071</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>880.9652600000001</v>
+        <v>880.9652599999999</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>1171.02476</v>
@@ -2585,17 +2170,22 @@
         <v>3498.22988</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>8547.634050000001</v>
+        <v>8547.78068</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>13290.39768</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>13482.97631</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>19374.025</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>19708.75458</v>
@@ -2745,17 +2350,22 @@
         <v>89983.38441</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>114799.50759</v>
+        <v>114813.94381</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>119558.72113</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>121868.16879</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>146748.563</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>9888.828710000002</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>42350.62444</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>56730.896</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>1881.66594</v>
@@ -2819,23 +2434,28 @@
         <v>4564.4732</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>7979.692069999998</v>
+        <v>7979.69207</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>9564.85953</v>
+        <v>9564.859530000002</v>
       </c>
       <c r="L38" s="22" t="n">
         <v>6757.2703</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>8118.633620000001</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>8329.772559999999</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>10464.977</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>1234.38519</v>
@@ -2865,17 +2485,22 @@
         <v>13884.75555</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>11352.53955</v>
+        <v>11366.97577</v>
       </c>
       <c r="M39" s="22" t="n">
         <v>12955.06099</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>12812.278</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>3588.42065</v>
@@ -2893,7 +2518,7 @@
         <v>5510.0381</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>8000.23409</v>
+        <v>8000.234090000001</v>
       </c>
       <c r="I40" s="22" t="n">
         <v>11202.37585</v>
@@ -2908,14 +2533,19 @@
         <v>22692.59274</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>20820.31143</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>22870.88046</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>26841.161</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>7.83343</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>40.88055</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>266.105</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>3107.62066</v>
@@ -3028,14 +2668,19 @@
         <v>30827.67981</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>35273.2101</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>35320.94979</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>39633.146</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>30.307</v>
@@ -3062,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="23" t="n">
-        <v>70.34425999999999</v>
+        <v>70.34426000000001</v>
       </c>
       <c r="L44" s="23" t="n">
         <v>166.78968</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>528.92985</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>1025.766</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>30.307</v>
@@ -3102,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>70.34425999999999</v>
+        <v>70.34426000000001</v>
       </c>
       <c r="L45" s="22" t="n">
         <v>166.78968</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>528.92985</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>1025.766</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>356.42921</v>
@@ -3219,7 +2884,7 @@
         <v>569.1238499999999</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>645.8774800000001</v>
+        <v>645.87748</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>972.65261</v>
@@ -3228,14 +2893,19 @@
         <v>665.78626</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>625.73939</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>754.2727899999999</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>1097.784</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>349.33604</v>
@@ -3259,23 +2929,28 @@
         <v>364.86088</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>509.7247500000001</v>
+        <v>509.72475</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>962.4349299999999</v>
+        <v>962.43493</v>
       </c>
       <c r="L49" s="22" t="n">
         <v>656.37745</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>614.86131</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>743.3947099999999</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1095.329</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>7.09317</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>10.87808</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>6394.00557</v>
@@ -3327,7 +3007,7 @@
         <v>3434.70467</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>2987.35227</v>
+        <v>2987.352269999999</v>
       </c>
       <c r="G51" s="46" t="n">
         <v>2197.4468</v>
@@ -3345,17 +3025,22 @@
         <v>7960.903929999999</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>11898.65307</v>
+        <v>11900.26511</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>10486.98937</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>10685.40029</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>13194.286</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>2501.81512</v>
@@ -3385,17 +3070,22 @@
         <v>5328.57933</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>7514.08942</v>
+        <v>7515.70146</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>7531.220119999999</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>7729.63104</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>10063.233</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>158.75807</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>0.06526999999999999</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>20.432</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>44.13826</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>1219.82071</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>1442.25</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>77.68539999999999</v>
@@ -3510,12 +3210,17 @@
       <c r="M55" s="22" t="n">
         <v>353.9763</v>
       </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+      <c r="N55" s="22" t="n">
+        <v>304.454</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>3581.10751</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>101.90006</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>217.198</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>10.98369</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>137.45317</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>166.566</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>3e-05</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>19.51749</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>1142.55374</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>980.153</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>29159.71166</v>
@@ -3735,7 +3465,7 @@
         <v>59169.42883</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>81413.95499000001</v>
+        <v>81413.95499</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>97953.16353000001</v>
@@ -3744,17 +3474,22 @@
         <v>110483.93911</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>123002.0314</v>
+        <v>123008.78827</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>138727.22012</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>139372.90105</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>198969.142</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>138.42314</v>
@@ -3784,17 +3519,22 @@
         <v>245.24482</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>293.9245799999999</v>
+        <v>293.92458</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>803.84369</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>803.8436899999999</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>21590.932</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>252.88</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>21130.88</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>5.2336</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>143.65674</v>
@@ -3984,17 +3744,22 @@
         <v>222.74482</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>268.4245799999999</v>
+        <v>268.42458</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>550.9636899999999</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>460.052</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>10</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>5163.891</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>10</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>5163.891</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>585.54069</v>
@@ -4363,7 +4173,7 @@
         <v>609.78963</v>
       </c>
       <c r="E77" s="23" t="n">
-        <v>564.3401899999999</v>
+        <v>564.34019</v>
       </c>
       <c r="F77" s="33" t="n">
         <v>160.66988</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>682.03236</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>682.032</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>552.54069</v>
@@ -4483,7 +4308,7 @@
         <v>576.78963</v>
       </c>
       <c r="E80" s="22" t="n">
-        <v>564.3401899999999</v>
+        <v>564.34019</v>
       </c>
       <c r="F80" s="21" t="n">
         <v>160.66988</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>163.58547</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>178.04</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>33</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>503.992</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>503.992</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>14.45489</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>24539.71097</v>
@@ -4806,7 +4671,7 @@
         <v>31053.11784</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>30041.13155999999</v>
+        <v>30041.13156</v>
       </c>
       <c r="G88" s="23" t="n">
         <v>36382.79678</v>
@@ -4824,17 +4689,22 @@
         <v>94687.47</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>102853.16873</v>
+        <v>102853.96873</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>114340.61826</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>114839.96951</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>136675.362</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>5933.678890000001</v>
@@ -4867,14 +4737,19 @@
         <v>29524.84372</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>29487.39519</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>29500.29519</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>37874.383</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>16.93407</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>29.66564</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>29.666</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>9850.214019999999</v>
@@ -4944,17 +4824,22 @@
         <v>29771.36211</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>33668.41998000001</v>
+        <v>33668.41998</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>36768.19611</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>36880.6807</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>42890.331</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>7471.4581</v>
@@ -4987,14 +4872,19 @@
         <v>36500.00299</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>46752.93597999999</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>46805.43172000001</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>52646.648</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>5705.40934</v>
@@ -5003,7 +4893,7 @@
         <v>6134.34624</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>7257.942430000001</v>
+        <v>7257.94243</v>
       </c>
       <c r="F93" s="21" t="n">
         <v>7674.74589</v>
@@ -5024,17 +4914,22 @@
         <v>15187.84085</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>14752.54662</v>
+        <v>14753.93142</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>14842.85987</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>15277.65948</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>17301.136</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>3287.56616</v>
@@ -5046,13 +4941,13 @@
         <v>4298.04515</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>4953.295539999999</v>
+        <v>4953.29554</v>
       </c>
       <c r="G94" s="22" t="n">
         <v>6258.77732</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>8712.535390000001</v>
+        <v>8712.535389999999</v>
       </c>
       <c r="I94" s="22" t="n">
         <v>9767.299309999999</v>
@@ -5064,17 +4959,22 @@
         <v>12811.9329</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>16230.20334</v>
+        <v>16231.1866</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>18067.3655</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>18272.34407</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>21686.475</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>341.15424</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>1166.38208</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>1172.882</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>8928.24552</v>
@@ -5144,17 +5049,22 @@
         <v>27981.79909</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>31957.23601</v>
+        <v>31958.80407</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>38033.6588</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>38351.96606</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>43990.782</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>402.53113</v>
@@ -5175,7 +5085,7 @@
         <v>4544.60105</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>5008.4429</v>
+        <v>5008.442899999999</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>2726.90974</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>2474.63491</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>6203.524</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>459.01054</v>
@@ -5229,18 +5144,23 @@
       <c r="M98" s="22" t="n">
         <v>2784.84178</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>861.099</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2322.07247</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>2316.98987</v>
+        <v>2316.989869999999</v>
       </c>
       <c r="E99" s="23" t="n">
         <v>2383.6089</v>
@@ -5252,29 +5172,34 @@
         <v>2826.51531</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>4538.89063</v>
+        <v>4538.890630000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>6127.172149999999</v>
+        <v>6127.17215</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>7527.106679999999</v>
+        <v>7527.10668</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>8168.321380000001</v>
+        <v>8168.321379999999</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>10171.93434</v>
+        <v>10176.97934</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>12414.81147</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>12417.87077</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>13903.547</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>1196.29082</v>
@@ -5304,17 +5229,22 @@
         <v>3712.02836</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>4161.693920000001</v>
+        <v>4166.73892</v>
       </c>
       <c r="M100" s="22" t="n">
         <v>4579.10794</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>5412.739</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>19.21587</v>
@@ -5378,7 +5313,7 @@
         <v>30.24658</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>61.60445000000001</v>
+        <v>61.60445</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>57.44694</v>
@@ -5387,14 +5322,19 @@
         <v>45.73422</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>42.22759</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>46.04541</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>52.805</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>4499.696300000001</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>7053.177</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1797.27786</v>
@@ -5461,23 +5406,28 @@
         <v>7332.553400000001</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>7027.873890000001</v>
+        <v>7027.87389</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>7432.05279</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>7999.27462</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>7999.274619999999</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>7422.25</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>359.82711</v>
+        <v>359.8271100000001</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>207.46695</v>
@@ -5486,7 +5436,7 @@
         <v>382.95678</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>349.9309699999999</v>
+        <v>349.93097</v>
       </c>
       <c r="G105" s="22" t="n">
         <v>409.73209</v>
@@ -5498,7 +5448,7 @@
         <v>345.99497</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>357.1715799999999</v>
+        <v>357.17158</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>577.44439</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>976.0235600000001</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>1049.595</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1050.53919</v>
@@ -5547,14 +5502,19 @@
         <v>4365.35493</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>5681.51854</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>5682.27706</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>7087.019</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>1043.8776</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>254.634</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>773.37294</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>28.799</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>270.50466</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>225.835</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1562.74089</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>3363.879600000001</v>
+        <v>3363.8796</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>3565.92464</v>
@@ -5864,17 +5859,22 @@
         <v>3000.28922</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>2832.66725</v>
+        <v>2833.57912</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>3968.04051</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>4111.31089</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>3957.712</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1540.76887</v>
@@ -5904,17 +5904,22 @@
         <v>3000.28922</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>2832.66725</v>
+        <v>2833.57912</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>3968.04051</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>4111.31089</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>3957.712</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>21.97202</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>1.2235</v>
@@ -5975,10 +5985,10 @@
         <v>4.841099999999999</v>
       </c>
       <c r="I117" s="23" t="n">
-        <v>4.8421</v>
+        <v>4.842099999999999</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>3434.6301</v>
+        <v>3434.630099999999</v>
       </c>
       <c r="K117" s="23" t="n">
         <v>3347.05693</v>
@@ -5987,14 +5997,19 @@
         <v>5646.488800000001</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>5473.996230000001</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>5473.99623</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>16741.032</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.98472</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>4.60232</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>4.602</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0.23878</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0.23878</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0.00015</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,20 +6399,25 @@
         <v>3342.21583</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>5538.12235</v>
+        <v>5538.122350000001</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>5469.155279999999</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>5469.15528</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>16736.143</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>92483.00857000001</v>
+        <v>92483.00856999999</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>103779.25387</v>
@@ -6375,23 +6435,26 @@
         <v>199991.0085</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>273882.0135700001</v>
+        <v>273882.01357</v>
       </c>
       <c r="J127" s="33" t="n">
         <v>301423.34595</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>343089.34923</v>
+        <v>343089.3492299999</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>434976.37142</v>
+        <v>435015.87123</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>457814.61758</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>467430.65311</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>550285.322</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>323-Manufacture of sports goods</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>47503.56543000001</v>
+        <v>47503.56543</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>46908.35611</v>
@@ -6516,17 +6593,22 @@
         <v>175890.43038</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>233865.71229</v>
+        <v>233879.14695</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>227303.65992</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>231482.46431</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>231384.061</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>9357.17038</v>
@@ -6559,14 +6641,19 @@
         <v>37124.59947</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>33596.4057</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>31825.59471</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>34211.661</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>8793.14292</v>
@@ -6590,23 +6677,28 @@
         <v>19705.89103</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>22766.18697999999</v>
+        <v>22766.18698</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>21376.4128</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>30796.25049</v>
+        <v>30796.25048999999</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>32161.69368</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>30390.88269</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>32510.64</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>155.06267</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>48.016</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>8.26117</v>
@@ -6681,18 +6778,23 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>14.725</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>393.7970799999999</v>
       </c>
       <c r="D137" s="22" t="n">
-        <v>554.34483</v>
+        <v>554.3448300000001</v>
       </c>
       <c r="E137" s="22" t="n">
         <v>673.81935</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>947.2247</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>875.524</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>23.42888</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>487.48732</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>792.206</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>23911.02391</v>
@@ -6956,17 +7088,22 @@
         <v>87276.06447</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>97666.03750999999</v>
+        <v>97670.68872000001</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>88158.52064</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>91841.50344</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>99682.82000000001</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>14891.96653</v>
@@ -6984,7 +7121,7 @@
         <v>27972.95633</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>35206.54322</v>
+        <v>35206.54322000001</v>
       </c>
       <c r="I144" s="25" t="n">
         <v>47150.13997</v>
@@ -6996,17 +7133,22 @@
         <v>60929.66875</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>68935.37587999999</v>
+        <v>68940.02709</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>66188.18061</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>69854.48087999999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>68494.159</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>8487.182620000001</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>21141.89533</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>28619.103</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,24 +7273,29 @@
       <c r="M147" s="25" t="n">
         <v>31.99734</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>16.717</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>531.87476</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>741.31307</v>
+        <v>741.3130699999999</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>1207.55752</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>517.7528299999999</v>
+        <v>517.75283</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>1690.26726</v>
@@ -7150,7 +7307,7 @@
         <v>2157.31337</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>3200.294980000001</v>
+        <v>3200.29498</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>3509.043479999999</v>
@@ -7159,14 +7316,19 @@
         <v>1242.88203</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>796.44736</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>813.1298899999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>2552.841</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>5537.66229</v>
@@ -7175,7 +7337,7 @@
         <v>5018.17205</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>7514.3576</v>
+        <v>7514.357599999999</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>7812.469529999999</v>
@@ -7193,20 +7355,25 @@
         <v>18846.15799</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>23981.28825000001</v>
+        <v>23981.28825</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>33377.80479</v>
+        <v>33385.0586</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>48168.90693</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>48588.02284</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>51477.855</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>4381.34266</v>
@@ -7218,7 +7385,7 @@
         <v>5822.72593</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>6816.680310000001</v>
+        <v>6816.68031</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>16942.49333</v>
@@ -7239,14 +7406,19 @@
         <v>28979.92065</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>41225.4353</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>41329.79079</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>44513.476</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,18 +7498,23 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>869.10246</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>877.7966700000001</v>
+        <v>877.7966699999999</v>
       </c>
       <c r="E153" s="22" t="n">
         <v>1044.00382</v>
@@ -7356,17 +7538,22 @@
         <v>2960.31567</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>3381.08465</v>
+        <v>3382.05346</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>3451.28522</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>3751.75854</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>3234.024</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>287.21717</v>
@@ -7396,17 +7583,22 @@
         <v>809.77268</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>1016.79949</v>
+        <v>1023.08449</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>3492.18641</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>3506.47351</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>3730.355</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>4542.13033</v>
@@ -7479,17 +7676,22 @@
         <v>47088.25317</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>35385.11047000001</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>35936.50569</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>29073.169</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>4489.164130000001</v>
+        <v>4489.16413</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>5503.06746</v>
@@ -7501,7 +7703,7 @@
         <v>8212.09173</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>9263.09037</v>
+        <v>9263.090370000002</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>17049.45419</v>
@@ -7519,14 +7721,19 @@
         <v>46970.25317</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>35385.11047000001</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>35936.50569</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>29073.169</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>52.9662</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,18 +7903,23 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3619.80414</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>3507.11194</v>
+        <v>3507.111939999999</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>3978.48144</v>
@@ -7701,7 +7928,7 @@
         <v>3187.960309999999</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>5263.767720000001</v>
+        <v>5263.76772</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>4431.82116</v>
@@ -7716,17 +7943,22 @@
         <v>12300.67467</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>15924.54934</v>
+        <v>15926.07898</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>19208.32078</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>20290.41964</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>15442.479</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1333.55203</v>
@@ -7756,20 +7988,25 @@
         <v>3190.02424</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>4595.94488</v>
+        <v>4597.47452</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>7002.83592</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>7624.5951</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>2972.254</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>621.19389</v>
+        <v>621.1938899999999</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>743.96392</v>
@@ -7799,14 +8036,19 @@
         <v>1735.31053</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>1963.54762</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>2273.22228</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>1570.478</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1433.44065</v>
@@ -7836,17 +8078,22 @@
         <v>7512.18458</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>9555.066010000002</v>
+        <v>9555.06601</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>9984.95571</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>10135.62073</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>10452.494</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>231.61757</v>
@@ -7861,7 +8108,7 @@
         <v>3.96481</v>
       </c>
       <c r="G166" s="22" t="n">
-        <v>59.02048000000001</v>
+        <v>59.02048</v>
       </c>
       <c r="H166" s="21" t="n">
         <v>157.95028</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>256.98153</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>447.253</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>199.35193</v>
@@ -7904,7 +8156,7 @@
         <v>1009.52154</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>622.33086</v>
+        <v>622.3308600000001</v>
       </c>
       <c r="I167" s="23" t="n">
         <v>1771.17085</v>
@@ -7919,14 +8171,19 @@
         <v>2196.71575</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2404.3178</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2618.34039</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>1002.734</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>569.0208400000001</v>
@@ -7935,7 +8192,7 @@
         <v>661.22622</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>939.0215499999999</v>
+        <v>939.02155</v>
       </c>
       <c r="F168" s="21" t="n">
         <v>1184.87879</v>
@@ -7959,14 +8216,19 @@
         <v>4208.980509999999</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>3482.35054</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>3697.77544</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>1632.231</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>369.66891</v>
@@ -7978,16 +8240,16 @@
         <v>327.13862</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>734.17091</v>
+        <v>734.1709099999999</v>
       </c>
       <c r="G169" s="22" t="n">
         <v>895.8628</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>655.9585400000001</v>
+        <v>655.95854</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>301.85779</v>
+        <v>301.8577899999999</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>804.5115500000001</v>
@@ -7999,14 +8261,19 @@
         <v>2012.26476</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>1078.03274</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>1079.43505</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>629.497</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>77.70581999999999</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>362.2113000000001</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>387.959</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>193.645</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>205.867</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>77.70581999999999</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>168.5663</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>182.092</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>258.71663</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>19.8663</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>105.384</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>258.71663</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>22.258</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>19.8663</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>83.126</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>9997.60967</v>
@@ -8495,7 +8822,7 @@
         <v>18890.43612</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>21843.69795</v>
+        <v>21843.69794999999</v>
       </c>
       <c r="F182" s="33" t="n">
         <v>23409.07489</v>
@@ -8516,20 +8843,25 @@
         <v>71859.96944</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>73208.83718</v>
+        <v>73208.83717999999</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>84255.00258</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>86055.70671000001</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>145483.628</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
-        <v>7794.26137</v>
+        <v>7794.261369999999</v>
       </c>
       <c r="D183" s="23" t="n">
         <v>12279.48963</v>
@@ -8553,20 +8885,25 @@
         <v>53746.86579</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>62728.46060000001</v>
+        <v>62728.46059999999</v>
       </c>
       <c r="L183" s="23" t="n">
         <v>64251.96182</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>68728.99066</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>70529.69479000001</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>86927.95699999999</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>7636.91266</v>
@@ -8599,14 +8936,19 @@
         <v>64020.74204</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>68717.96554999999</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>70518.66968000001</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>86410.258</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>187.50134</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>11.02511</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>556.961</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>30.96263</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>39.262</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0.8100000000000001</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>630.0079700000001</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>8984.35715</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>23811.053</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>615.4891700000001</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>7750</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>12160.216</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>14.5188</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1164</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>11636.748</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>70.35714999999999</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>14.089</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>1120.43033</v>
@@ -9116,17 +9518,22 @@
         <v>6821.67216</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>4974.019760000001</v>
+        <v>4974.01976</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>6472.308690000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>6472.30869</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>16230.135</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1120.43033</v>
@@ -9156,17 +9563,22 @@
         <v>6302.54333</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>4454.729020000001</v>
+        <v>4454.72902</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>6042.259400000001</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>6042.259399999999</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>8217.564</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>430.04929</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>8012.571</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>12.5</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>18480.122</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>18467.622</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>12.5</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>452.91</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>56.84608</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>34.305</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>452.91</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>40.40146</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>16.44462</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>16.445</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>34981.83347</v>
@@ -9895,7 +10397,7 @@
         <v>37980.46164</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>34834.67551</v>
+        <v>34834.67551000001</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>43689.19620000001</v>
@@ -9913,20 +10415,25 @@
         <v>73698.67578000001</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>95338.94941</v>
+        <v>95338.94941000002</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>127901.82195</v>
+        <v>127927.8871</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>146255.95508</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>149892.48209</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>173417.633</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>29776.88761</v>
@@ -9947,26 +10454,31 @@
         <v>43861.79557</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>52504.13269999999</v>
+        <v>52504.1327</v>
       </c>
       <c r="J218" s="33" t="n">
         <v>60608.34062</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>81187.08361000002</v>
+        <v>81187.08361</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>106180.433</v>
+        <v>106214.57479</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>119012.05496</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>119742.47137</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>128074.553</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>29561.53577</v>
@@ -9996,17 +10508,22 @@
         <v>80092</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>107522</v>
+        <v>107547</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>120235</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>121605</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>143632</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>2984.23126</v>
@@ -10039,14 +10556,19 @@
         <v>2012.2141</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>1770.05501</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>2410.55501</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>16104.556</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>3199.5831</v>
@@ -10076,17 +10598,22 @@
         <v>1430.9139</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>670.6471000000001</v>
+        <v>679.7888899999999</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>547.1099700000001</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>548.02638</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>547.109</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,15 +10648,20 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
-        <v>97.28957</v>
+        <v>97.28957000000001</v>
       </c>
       <c r="D223" s="23" t="n">
         <v>143.58101</v>
@@ -10156,17 +10688,22 @@
         <v>1382.40393</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>4702.373930000001</v>
+        <v>4702.37393</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>3817.49345</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>3817.720580000001</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>2029.72</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>82.82514</v>
@@ -10279,14 +10826,19 @@
         <v>208.7452</v>
       </c>
       <c r="M226" s="22" t="n">
-        <v>208.51807</v>
-      </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+        <v>208.7452</v>
+      </c>
+      <c r="N226" s="22" t="n">
+        <v>208.745</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0.06443</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0.06443</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>474.54095</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>14.4</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>3134.37</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>1820.911</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>1634.27335</v>
@@ -10473,20 +11045,25 @@
         <v>3515.45687</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>6760.5876</v>
+        <v>6760.587600000001</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>6393.360650000001</v>
+        <v>6397.39417</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>6946.15166</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>6950.347</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>7450.538</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>581.7566699999999</v>
@@ -10507,7 +11084,7 @@
         <v>907.32034</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>898.6533799999999</v>
+        <v>898.65338</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>1074.55773</v>
@@ -10516,17 +11093,22 @@
         <v>1405.00402</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>1353.34228</v>
+        <v>1353.57612</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>1498.03875</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>1502.23409</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>1553.006</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>5.78938</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>5.2065</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>5.207</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>311.6199099999999</v>
@@ -10584,7 +11171,7 @@
         <v>470.08548</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>433.07131</v>
+        <v>433.0713099999999</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>663.26821</v>
@@ -10593,20 +11180,25 @@
         <v>702.87172</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>663.7555900000001</v>
+        <v>663.75559</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>646.99766</v>
+        <v>650.7973400000001</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>662.1134400000001</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>662.11344</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>680.47</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>145.65726</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>96.048</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>589.4501300000001</v>
@@ -10673,7 +11270,7 @@
         <v>1732.23804</v>
       </c>
       <c r="K236" s="22" t="n">
-        <v>4686.03861</v>
+        <v>4686.038610000001</v>
       </c>
       <c r="L236" s="22" t="n">
         <v>4387.81421</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>4780.79297</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>5115.807</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>9311.572300000002</v>
@@ -10713,20 +11315,25 @@
         <v>33375.33181</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>34096.39550999999</v>
+        <v>34096.39551</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>38734.06049</v>
+        <v>38734.43083999999</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>48736.1532</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>51286.30891000001</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>56488.968</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-6672.183599999999</v>
@@ -10756,17 +11363,22 @@
         <v>-31209.45927</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-35822.45047</v>
+        <v>-35834.08208</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-41024.02751</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-40266.26375999999</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-30085.874</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>833.99424</v>
@@ -10778,7 +11390,7 @@
         <v>-1873.28747</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>3660.36677</v>
+        <v>3660.366770000001</v>
       </c>
       <c r="G239" s="23" t="n">
         <v>6157.78969</v>
@@ -10796,17 +11408,22 @@
         <v>3121.93803</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>7714.04435</v>
+        <v>7713.195449999999</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>8768.12932</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>8361.897989999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>9459.727999999999</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2592.97235</v>
@@ -10818,7 +11435,7 @@
         <v>3069.31013</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>5455.67803</v>
+        <v>5455.678029999999</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>8061.8145</v>
@@ -10839,14 +11456,19 @@
         <v>13163.00122</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>14922.56675</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>14703.71327</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>12903.328</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1758.97811</v>
@@ -10876,20 +11498,25 @@
         <v>6019.51413</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>5448.95687</v>
+        <v>5449.80577</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>6154.43743</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>6341.815279999999</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>3443.6</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>92483.00856999999</v>
+        <v>92483.00857000001</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>103779.25387</v>
@@ -10916,14 +11543,17 @@
         <v>343089.34923</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>434976.37142</v>
+        <v>435015.87123</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>457814.61758</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>467430.65311</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>550285.322</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>88</v>
@@ -10972,14 +11605,17 @@
         <v>84</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>85</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>96</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>105</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>